--- a/biology/Médecine/Sabbataï_Donnolo/Sabbataï_Donnolo.xlsx
+++ b/biology/Médecine/Sabbataï_Donnolo/Sabbataï_Donnolo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sabbata%C3%AF_Donnolo</t>
+          <t>Sabbataï_Donnolo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sabbataï Donnolo (hébreu: שבתי דונולו Shabbetaï Donnolo) est un médecin et astronome juif italien né à Oria dans les Pouilles en 913 et mort après 982. Il est le plus vieil auteur connu de traités de médecine parmi les Juifs[1] mais aussi dans l'Europe chrétienne[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sabbataï Donnolo (hébreu: שבתי דונולו Shabbetaï Donnolo) est un médecin et astronome juif italien né à Oria dans les Pouilles en 913 et mort après 982. Il est le plus vieil auteur connu de traités de médecine parmi les Juifs mais aussi dans l'Europe chrétienne.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sabbata%C3%AF_Donnolo</t>
+          <t>Sabbataï_Donnolo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sabbataï ben Abraham ben Yoël Donnolo naît en 913 dans la ville d'Oria où prospère, à cette époque, une petite communauté juive (it). 
 Capturé lors de l'invasion sarrasine d'Oria à l’âge de douze ans, il est racheté (en) par des parents d'Otrante tandis que le reste de sa famille est emmené à Palerme et en Afrique du Nord. Désirant exercer la médecine et l'astrologie, il étudie, outre le Talmud, les textes des « Grecs, Arabes, Babyloniens et Indiens » auprès des non-Juifs car aucun Juif n'était alors versé dans ces sujets. Il devient ainsi le premier auteur juif à publier un traité de médecine mais aussi l'un des rares savants d'Italie du Sud de cette période. 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sabbata%C3%AF_Donnolo</t>
+          <t>Sabbataï_Donnolo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’œuvre de Sabbataï Donnolo est rédigée dans un hébreu littéraire qu'il manie avec aisance et où beaucoup de mots apparaissent pour la première fois. Il est l'un des premiers auteurs à mentionner le Midrash Tehillim. 
 Il est principalement connu comme l'auteur du Sefer haYaḳar (Le Livre Précieux) ou Sefer HaMirka'hot (Le Livre des Remèdes). Compilé au terme de quarante ans de pratique médicale, il contient un antidotarium c'est-à-dire une description de plus de 100 remèdes et la façon de les préparer à partir de plantes médicinales. Ses sources sont principalement gréco-latines et un seul nom arabe de plante apparaît ; il cite aussi Assaf le Médecin. 
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sabbata%C3%AF_Donnolo</t>
+          <t>Sabbataï_Donnolo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'astéroïde (77971) Donnolo porte son nom.
 </t>
